--- a/Resultados/RESULTADOS_0.xlsx
+++ b/Resultados/RESULTADOS_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -573,67 +573,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.69</v>
+        <v>2.16</v>
       </c>
       <c r="E2" t="n">
-        <v>37.2</v>
+        <v>46.38</v>
       </c>
       <c r="F2" t="n">
-        <v>34.2</v>
+        <v>39.93</v>
       </c>
       <c r="G2" t="n">
-        <v>16.82</v>
+        <v>10.02</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="J2" t="n">
-        <v>26.11</v>
+        <v>89.87</v>
       </c>
       <c r="K2" t="n">
-        <v>12.1</v>
+        <v>37.55</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="N2" t="n">
-        <v>3.01</v>
+        <v>11.32</v>
       </c>
       <c r="O2" t="n">
-        <v>3454.41</v>
+        <v>11317.98</v>
       </c>
       <c r="P2" t="n">
-        <v>98.95999999999999</v>
+        <v>327.06</v>
       </c>
       <c r="Q2" t="n">
         <v>1194.86</v>
       </c>
       <c r="R2" t="n">
-        <v>289.63</v>
+        <v>489.9</v>
       </c>
       <c r="S2" t="n">
         <v>100.53</v>
       </c>
       <c r="T2" t="n">
-        <v>93914.00999999999</v>
+        <v>193464.84</v>
       </c>
       <c r="U2" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="V2" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="W2" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="X2" t="n">
-        <v>5.69</v>
+        <v>11.42</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -655,67 +655,67 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.69</v>
+        <v>2.74</v>
       </c>
       <c r="E3" t="n">
-        <v>37.11</v>
+        <v>36.54</v>
       </c>
       <c r="F3" t="n">
-        <v>34.12</v>
+        <v>32.83</v>
       </c>
       <c r="G3" t="n">
-        <v>16.92</v>
+        <v>20.95</v>
       </c>
       <c r="H3" t="n">
-        <v>1.23</v>
+        <v>0.39</v>
       </c>
       <c r="I3" t="n">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="J3" t="n">
-        <v>27.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.1</v>
+        <v>37.55</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>11.54</v>
       </c>
       <c r="O3" t="n">
-        <v>3588.35</v>
+        <v>11468.97</v>
       </c>
       <c r="P3" t="n">
-        <v>102.41</v>
+        <v>256.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1194.86</v>
+        <v>1194.85</v>
       </c>
       <c r="R3" t="n">
-        <v>286.94</v>
+        <v>248.51</v>
       </c>
       <c r="S3" t="n">
         <v>100.53</v>
       </c>
       <c r="T3" t="n">
-        <v>92576.87</v>
+        <v>73495.10000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="V3" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="W3" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="X3" t="n">
-        <v>11.31</v>
+        <v>15.75</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -737,72 +737,400 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.69</v>
+        <v>2.98</v>
       </c>
       <c r="E4" t="n">
-        <v>37.11</v>
+        <v>33.57</v>
       </c>
       <c r="F4" t="n">
-        <v>34.12</v>
+        <v>30.59</v>
       </c>
       <c r="G4" t="n">
-        <v>16.92</v>
+        <v>33.37</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78</v>
+        <v>0.57</v>
       </c>
       <c r="I4" t="n">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="J4" t="n">
-        <v>28.29</v>
+        <v>92.31999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>12.1</v>
+        <v>37.55</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N4" t="n">
-        <v>3.19</v>
+        <v>11.77</v>
       </c>
       <c r="O4" t="n">
-        <v>3722.55</v>
+        <v>11620.34</v>
       </c>
       <c r="P4" t="n">
-        <v>106.12</v>
+        <v>225.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>1194.86</v>
+        <v>1194.85</v>
       </c>
       <c r="R4" t="n">
-        <v>286.94</v>
+        <v>172.29</v>
       </c>
       <c r="S4" t="n">
         <v>100.53</v>
       </c>
       <c r="T4" t="n">
-        <v>92576.87</v>
+        <v>35583.84</v>
       </c>
       <c r="U4" t="n">
-        <v>0.35</v>
+        <v>0.58</v>
       </c>
       <c r="V4" t="n">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="W4" t="n">
-        <v>0.51</v>
+        <v>0.24</v>
       </c>
       <c r="X4" t="n">
-        <v>16.92</v>
+        <v>17.83</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
       </c>
       <c r="Z4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="G5" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>93.55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>36</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11772.07</v>
+      </c>
+      <c r="P5" t="n">
+        <v>210.41</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R5" t="n">
+        <v>162.76</v>
+      </c>
+      <c r="S5" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>30894.41</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X5" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E6" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="G6" t="n">
+        <v>56.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>94.79000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11924.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>198.65</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>150.34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>24723.76</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X6" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="K7" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12076.67</v>
+      </c>
+      <c r="P7" t="n">
+        <v>200.34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R7" t="n">
+        <v>151.51</v>
+      </c>
+      <c r="S7" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>25308.87</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X7" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>97.26000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12229.54</v>
+      </c>
+      <c r="P8" t="n">
+        <v>202.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R8" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>23904.46</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Resultados/RESULTADOS_0.xlsx
+++ b/Resultados/RESULTADOS_0.xlsx
@@ -667,31 +667,31 @@
         <v>16.92</v>
       </c>
       <c r="H3" t="n">
-        <v>1.23</v>
+        <v>1.84</v>
       </c>
       <c r="I3" t="n">
         <v>121</v>
       </c>
       <c r="J3" t="n">
-        <v>27.2</v>
+        <v>28.41</v>
       </c>
       <c r="K3" t="n">
         <v>12.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>3.11</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>3588.35</v>
+        <v>3737.47</v>
       </c>
       <c r="P3" t="n">
-        <v>102.41</v>
+        <v>106.53</v>
       </c>
       <c r="Q3" t="n">
         <v>1194.86</v>
@@ -749,31 +749,31 @@
         <v>16.92</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78</v>
+        <v>2.87</v>
       </c>
       <c r="I4" t="n">
         <v>121</v>
       </c>
       <c r="J4" t="n">
-        <v>28.29</v>
+        <v>30.71</v>
       </c>
       <c r="K4" t="n">
         <v>12.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5.22</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.19</v>
+        <v>3.39</v>
       </c>
       <c r="O4" t="n">
-        <v>3722.55</v>
+        <v>4021.69</v>
       </c>
       <c r="P4" t="n">
-        <v>106.12</v>
+        <v>114.24</v>
       </c>
       <c r="Q4" t="n">
         <v>1194.86</v>

--- a/Resultados/RESULTADOS_0.xlsx
+++ b/Resultados/RESULTADOS_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -573,67 +573,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.16</v>
+        <v>2.69</v>
       </c>
       <c r="E2" t="n">
-        <v>46.38</v>
+        <v>37.2</v>
       </c>
       <c r="F2" t="n">
-        <v>39.93</v>
+        <v>34.2</v>
       </c>
       <c r="G2" t="n">
-        <v>10.02</v>
+        <v>16.82</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="I2" t="n">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="J2" t="n">
-        <v>89.87</v>
+        <v>26.11</v>
       </c>
       <c r="K2" t="n">
-        <v>37.55</v>
+        <v>12.1</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>11.32</v>
+        <v>3.01</v>
       </c>
       <c r="O2" t="n">
-        <v>11317.98</v>
+        <v>3454.41</v>
       </c>
       <c r="P2" t="n">
-        <v>327.06</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="Q2" t="n">
         <v>1194.86</v>
       </c>
       <c r="R2" t="n">
-        <v>489.9</v>
+        <v>289.63</v>
       </c>
       <c r="S2" t="n">
         <v>100.53</v>
       </c>
       <c r="T2" t="n">
-        <v>193464.84</v>
+        <v>93914.00999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="W2" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="X2" t="n">
-        <v>11.42</v>
+        <v>5.69</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -655,482 +655,72 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="E3" t="n">
-        <v>36.54</v>
+        <v>37.11</v>
       </c>
       <c r="F3" t="n">
-        <v>32.83</v>
+        <v>34.12</v>
       </c>
       <c r="G3" t="n">
-        <v>20.95</v>
+        <v>16.92</v>
       </c>
       <c r="H3" t="n">
-        <v>0.39</v>
+        <v>1.23</v>
       </c>
       <c r="I3" t="n">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="J3" t="n">
-        <v>91.09999999999999</v>
+        <v>27.2</v>
       </c>
       <c r="K3" t="n">
-        <v>37.55</v>
+        <v>12.1</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11.54</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>11468.97</v>
+        <v>3588.35</v>
       </c>
       <c r="P3" t="n">
-        <v>256.6</v>
+        <v>102.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>1194.85</v>
+        <v>1194.86</v>
       </c>
       <c r="R3" t="n">
-        <v>248.51</v>
+        <v>286.94</v>
       </c>
       <c r="S3" t="n">
         <v>100.53</v>
       </c>
       <c r="T3" t="n">
-        <v>73495.10000000001</v>
+        <v>92576.87</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="V3" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="W3" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="X3" t="n">
-        <v>15.75</v>
+        <v>11.31</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33.57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33.37</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55</v>
-      </c>
-      <c r="J4" t="n">
-        <v>92.31999999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>37.55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>53</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11620.34</v>
-      </c>
-      <c r="P4" t="n">
-        <v>225.56</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R4" t="n">
-        <v>172.29</v>
-      </c>
-      <c r="S4" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>35583.84</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>40</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E5" t="n">
-        <v>32.97</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="G5" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>39</v>
-      </c>
-      <c r="J5" t="n">
-        <v>93.55</v>
-      </c>
-      <c r="K5" t="n">
-        <v>37.55</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>36</v>
-      </c>
-      <c r="N5" t="n">
-        <v>12</v>
-      </c>
-      <c r="O5" t="n">
-        <v>11772.07</v>
-      </c>
-      <c r="P5" t="n">
-        <v>210.41</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R5" t="n">
-        <v>162.76</v>
-      </c>
-      <c r="S5" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>30894.41</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="X5" t="n">
-        <v>19.62</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="E6" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="F6" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="G6" t="n">
-        <v>56.18</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I6" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>94.79000000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>37.55</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11924.18</v>
-      </c>
-      <c r="P6" t="n">
-        <v>198.65</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>150.34</v>
-      </c>
-      <c r="S6" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>24723.76</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X6" t="n">
-        <v>21.08</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E7" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>32</v>
-      </c>
-      <c r="J7" t="n">
-        <v>96.02</v>
-      </c>
-      <c r="K7" t="n">
-        <v>37.55</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12076.67</v>
-      </c>
-      <c r="P7" t="n">
-        <v>200.34</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>151.51</v>
-      </c>
-      <c r="S7" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>25308.87</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X7" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>40</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="E8" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="F8" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="G8" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>97.26000000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>37.55</v>
-      </c>
-      <c r="L8" t="n">
-        <v>7</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="O8" t="n">
-        <v>12229.54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>202.02</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R8" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="S8" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>23904.46</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X8" t="n">
-        <v>23.99</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Resultados/RESULTADOS_0.xlsx
+++ b/Resultados/RESULTADOS_0.xlsx
@@ -667,31 +667,31 @@
         <v>16.92</v>
       </c>
       <c r="H3" t="n">
-        <v>0.79</v>
+        <v>1.23</v>
       </c>
       <c r="I3" t="n">
         <v>121</v>
       </c>
       <c r="J3" t="n">
-        <v>26.38</v>
+        <v>27.2</v>
       </c>
       <c r="K3" t="n">
         <v>12.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>3487.87</v>
+        <v>3588.35</v>
       </c>
       <c r="P3" t="n">
-        <v>99.61</v>
+        <v>102.41</v>
       </c>
       <c r="Q3" t="n">
         <v>1194.86</v>

--- a/Resultados/RESULTADOS_0.xlsx
+++ b/Resultados/RESULTADOS_0.xlsx
@@ -667,31 +667,31 @@
         <v>16.92</v>
       </c>
       <c r="H3" t="n">
-        <v>1.23</v>
+        <v>0.79</v>
       </c>
       <c r="I3" t="n">
         <v>121</v>
       </c>
       <c r="J3" t="n">
-        <v>27.2</v>
+        <v>26.38</v>
       </c>
       <c r="K3" t="n">
         <v>12.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="O3" t="n">
-        <v>3588.35</v>
+        <v>3487.87</v>
       </c>
       <c r="P3" t="n">
-        <v>102.41</v>
+        <v>99.61</v>
       </c>
       <c r="Q3" t="n">
         <v>1194.86</v>
@@ -715,7 +715,7 @@
         <v>0.51</v>
       </c>
       <c r="X3" t="n">
-        <v>11.31</v>
+        <v>5.62</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
